--- a/data/trans_camb/P55_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_2-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4504051850976798</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.983201585385574</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.5956981218586233</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,29; 13,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 0,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,66; 6,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.25924408663693</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.78202680732437</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.047133771342601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,96%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.85806841194019</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.465919588931763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,66; 16,19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; 7,34</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.004903740321564144</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.01983201585385574</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.006215663697971608</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.149686241589471</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1078202680732437</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.08191901785272261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,54; 4,32</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,58; 3,75</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 2,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1630133397011396</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.07036987525231647</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,61%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.429608283357953</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.118728860668254</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.919862281641672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 4,53</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-14,73; 4,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-8,89; 2,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.253521997624834</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-16.27707432630105</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-10.1846607909094</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.331917480539536</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.212683005161311</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.664408671085711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,24; 6,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 0,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,79; 1,26</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.01456479786602905</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.05328648225921899</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0300452626321763</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,35%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.08381367068019029</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1670663162681764</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1038157105378699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 6,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 0,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 1,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.04525426383265641</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.04451567088778686</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02759392236750056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.146460814261607</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.885800612217759</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.221544908150297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,09; 2,56</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,0; 9,3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 4,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.798993030091578</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.765616337811963</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.779727259903289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.039518728783155</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.17063428769209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 2,63</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,29</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 4,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.01191883093170934</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.02885800612217759</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02256763803085135</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.09017032795329658</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.09765616337811964</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06823280638937106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 11,85</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 6,58</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 6,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.06513850587147843</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.01211498056302131</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-5,65%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,72%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.267686919045408</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.04783727044039</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.9577770991800127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 13,72</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-19,03; 7,39</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 7,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.145161471366561</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.051533814114699</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-19,54</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-12,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.355968432950422</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.73784728417513</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.736950500700149</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 0,0</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-48,77; -4,63</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-36,56; -3,48</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.01282776138364691</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03170286045023551</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.009830194621235378</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,66%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-19,92%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-12,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.06187984056862828</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.02060961538249855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-12,59; 0,0</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-50,13; -4,86</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-36,57; -3,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.02411710353513277</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.09588007340291678</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03929343102983832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-2,8</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>2.894043673294755</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-4.303484054430462</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.5099519482368864</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 3,13</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; -1,74</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; -0,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-3.000392916869937</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-16.67504253023656</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-6.993770928776441</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-0,21%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-5,38%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>10.80301256023894</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>8.664353582963912</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>6.627450264508128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 3,32</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-13,45; -1,79</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; -0,42</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>0.03069122085769945</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.04641547625087023</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.005446664474421589</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.03063733506547186</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.1724011658499955</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.07366124051069986</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.1226706549620357</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.09810348790155014</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.07473281526966723</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-2.677397766596423</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-17.01522006649559</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-11.48400891941512</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-12.41496649714613</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-42.7098395874422</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-29.2261101877875</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>-3.732426561673812</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>-3.292813122674992</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.02677397766596423</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.173259607894846</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.1160270511987481</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.1241496649714613</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4313053569161952</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.2953922120281374</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>-0.03805318700909458</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-0.033403006590954</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.3555043540571234</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-4.768750475956685</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-2.630542406824876</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-3.692191283851521</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-10.44199056788318</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.924945656818799</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>3.043276404603169</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-1.32485091496122</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-0.2162957831301208</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.003684378121705488</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.04888914684663727</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.0271106149460938</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.03790358482584458</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1079708145911713</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.06088872951079016</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.03233798312419489</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.01363888942513055</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.002350698095073175</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
